--- a/stats/harvard/disease_type=all failure-type-ignored=session-failed for app=Avey.xlsx
+++ b/stats/harvard/disease_type=all failure-type-ignored=session-failed for app=Avey.xlsx
@@ -766,124 +766,124 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.222</v>
+        <v>0.292</v>
       </c>
       <c r="C4" t="n">
-        <v>0.019</v>
+        <v>0.046</v>
       </c>
       <c r="D4" t="n">
-        <v>0.137</v>
+        <v>0.214</v>
       </c>
       <c r="E4" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.25</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.183</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.454</v>
-      </c>
       <c r="O4" t="n">
-        <v>0.062</v>
+        <v>0.023</v>
       </c>
       <c r="P4" t="n">
-        <v>0.249</v>
+        <v>0.153</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.611</v>
+        <v>0.5</v>
       </c>
       <c r="R4" t="n">
-        <v>0.21</v>
+        <v>0.226</v>
       </c>
       <c r="S4" t="n">
-        <v>0.458</v>
+        <v>0.476</v>
       </c>
       <c r="T4" t="n">
-        <v>0.25</v>
+        <v>0.238</v>
       </c>
       <c r="U4" t="n">
-        <v>0.111</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="V4" t="n">
-        <v>0.333</v>
+        <v>0.292</v>
       </c>
       <c r="W4" t="n">
-        <v>0.301</v>
+        <v>0.243</v>
       </c>
       <c r="X4" t="n">
-        <v>0.005</v>
+        <v>0.044</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.067</v>
+        <v>0.209</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.489</v>
+        <v>0.418</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.165</v>
+        <v>0.131</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.406</v>
+        <v>0.362</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.152</v>
+        <v>0.114</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.028</v>
+        <v>0.007</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.167</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.245</v>
+        <v>2.061</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.112</v>
+        <v>0.105</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.334</v>
+        <v>0.324</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.778</v>
+        <v>0.679</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.173</v>
+        <v>0.153</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.416</v>
+        <v>0.391</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.726</v>
+        <v>0.66</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.101</v>
+        <v>0.124</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.318</v>
+        <v>0.351</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.748</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -893,124 +893,124 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>2.667</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="AO5" t="n">
         <v>0.889</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.321</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.222</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.916</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.444</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.6850000000000001</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.247</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.497</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.321</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.8159999999999999</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>2.778</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.173</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.926</v>
       </c>
     </row>
     <row r="6">
@@ -1020,72 +1020,72 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.355</v>
+        <v>0.432</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.415</v>
+        <v>0.278</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.333</v>
+        <v>0.312</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>0.444</v>
+        <v>0.419</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.379</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>0.638</v>
+        <v>0.523</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0.32</v>
+        <v>0.322</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>0.463</v>
+        <v>0.366</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>0.631</v>
+        <v>0.546</v>
       </c>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>0.264</v>
+        <v>0.196</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>2.47</v>
+        <v>2.323</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="n">
-        <v>0.778</v>
+        <v>0.739</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>0.841</v>
+        <v>0.763</v>
       </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
-        <v>0.823</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="7">
@@ -1095,72 +1095,72 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.555</v>
+        <v>0.608</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.433</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.556</v>
+        <v>0.489</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>0.556</v>
+        <v>0.52</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>1.005</v>
+        <v>0.55</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>0.655</v>
+        <v>0.538</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>0.384</v>
+        <v>0.41</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.524</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>0.764</v>
+        <v>0.668</v>
       </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>0.473</v>
+        <v>0.343</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>2.643</v>
+        <v>2.517</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="n">
-        <v>0.778</v>
+        <v>0.78</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>0.93</v>
+        <v>0.842</v>
       </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="n">
-        <v>0.881</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="8">
@@ -1170,124 +1170,124 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.826</v>
+        <v>0.756</v>
       </c>
       <c r="C8" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="U8" t="n">
         <v>0.212</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.461</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.834</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.517</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.835</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.191</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.437</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.214</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.463</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.626</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.208</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.403</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.215</v>
-      </c>
       <c r="V8" t="n">
-        <v>0.463</v>
+        <v>0.46</v>
       </c>
       <c r="W8" t="n">
-        <v>0.725</v>
+        <v>0.662</v>
       </c>
       <c r="X8" t="n">
-        <v>0.04</v>
+        <v>0.179</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.201</v>
+        <v>0.423</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.833</v>
+        <v>0.73</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.222</v>
+        <v>0.163</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.471</v>
+        <v>0.404</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.587</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.339</v>
+        <v>0.19</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.582</v>
+        <v>0.436</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.599</v>
+        <v>2.559</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.109</v>
+        <v>0.06</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.33</v>
+        <v>0.246</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.778</v>
+        <v>0.801</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.173</v>
+        <v>0.154</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.416</v>
+        <v>0.392</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.959</v>
+        <v>0.87</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.013</v>
+        <v>0.091</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.116</v>
+        <v>0.302</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.866</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="9">
@@ -1297,124 +1297,124 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.778</v>
+        <v>0.667</v>
       </c>
       <c r="C9" t="n">
-        <v>0.173</v>
+        <v>0.222</v>
       </c>
       <c r="D9" t="n">
-        <v>0.416</v>
+        <v>0.471</v>
       </c>
       <c r="E9" t="n">
-        <v>0.444</v>
+        <v>0.452</v>
       </c>
       <c r="F9" t="n">
-        <v>0.247</v>
+        <v>0.248</v>
       </c>
       <c r="G9" t="n">
-        <v>0.497</v>
+        <v>0.498</v>
       </c>
       <c r="H9" t="n">
-        <v>0.667</v>
+        <v>0.571</v>
       </c>
       <c r="I9" t="n">
-        <v>0.222</v>
+        <v>0.245</v>
       </c>
       <c r="J9" t="n">
-        <v>0.471</v>
+        <v>0.495</v>
       </c>
       <c r="K9" t="n">
-        <v>0.444</v>
+        <v>0.452</v>
       </c>
       <c r="L9" t="n">
-        <v>0.247</v>
+        <v>0.248</v>
       </c>
       <c r="M9" t="n">
-        <v>0.497</v>
+        <v>0.498</v>
       </c>
       <c r="N9" t="n">
-        <v>0.889</v>
+        <v>0.571</v>
       </c>
       <c r="O9" t="n">
-        <v>0.099</v>
+        <v>0.245</v>
       </c>
       <c r="P9" t="n">
-        <v>0.314</v>
+        <v>0.495</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.556</v>
+        <v>0.5</v>
       </c>
       <c r="R9" t="n">
-        <v>0.247</v>
+        <v>0.25</v>
       </c>
       <c r="S9" t="n">
-        <v>0.497</v>
+        <v>0.5</v>
       </c>
       <c r="T9" t="n">
-        <v>0.333</v>
+        <v>0.357</v>
       </c>
       <c r="U9" t="n">
-        <v>0.222</v>
+        <v>0.23</v>
       </c>
       <c r="V9" t="n">
-        <v>0.471</v>
+        <v>0.479</v>
       </c>
       <c r="W9" t="n">
-        <v>0.333</v>
+        <v>0.548</v>
       </c>
       <c r="X9" t="n">
-        <v>0.222</v>
+        <v>0.248</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.471</v>
+        <v>0.498</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.778</v>
+        <v>0.643</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.173</v>
+        <v>0.23</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.416</v>
+        <v>0.479</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.222</v>
+        <v>0.452</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.173</v>
+        <v>0.248</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.416</v>
+        <v>0.498</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.334</v>
+        <v>2.382</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.222</v>
+        <v>0.168</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.471</v>
+        <v>0.41</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.778</v>
+        <v>0.786</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.173</v>
+        <v>0.168</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.416</v>
+        <v>0.41</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.889</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.099</v>
+        <v>0.154</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.314</v>
+        <v>0.393</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.778</v>
+        <v>0.794</v>
       </c>
     </row>
     <row r="10">
@@ -1424,121 +1424,121 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.778</v>
+        <v>0.786</v>
       </c>
       <c r="C10" t="n">
-        <v>0.173</v>
+        <v>0.168</v>
       </c>
       <c r="D10" t="n">
-        <v>0.416</v>
+        <v>0.41</v>
       </c>
       <c r="E10" t="n">
-        <v>0.778</v>
+        <v>0.619</v>
       </c>
       <c r="F10" t="n">
-        <v>0.173</v>
+        <v>0.236</v>
       </c>
       <c r="G10" t="n">
-        <v>0.416</v>
+        <v>0.486</v>
       </c>
       <c r="H10" t="n">
-        <v>0.889</v>
+        <v>0.714</v>
       </c>
       <c r="I10" t="n">
-        <v>0.099</v>
+        <v>0.204</v>
       </c>
       <c r="J10" t="n">
-        <v>0.314</v>
+        <v>0.452</v>
       </c>
       <c r="K10" t="n">
-        <v>0.667</v>
+        <v>0.619</v>
       </c>
       <c r="L10" t="n">
-        <v>0.222</v>
+        <v>0.236</v>
       </c>
       <c r="M10" t="n">
-        <v>0.471</v>
+        <v>0.486</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0.762</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.181</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.426</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.667</v>
+        <v>0.548</v>
       </c>
       <c r="R10" t="n">
-        <v>0.222</v>
+        <v>0.248</v>
       </c>
       <c r="S10" t="n">
-        <v>0.471</v>
+        <v>0.498</v>
       </c>
       <c r="T10" t="n">
-        <v>0.444</v>
+        <v>0.5</v>
       </c>
       <c r="U10" t="n">
-        <v>0.247</v>
+        <v>0.25</v>
       </c>
       <c r="V10" t="n">
-        <v>0.497</v>
+        <v>0.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>0.738</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.193</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.778</v>
+        <v>0.786</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.173</v>
+        <v>0.168</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.416</v>
+        <v>0.41</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.444</v>
+        <v>0.571</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.247</v>
+        <v>0.245</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.497</v>
+        <v>0.495</v>
       </c>
       <c r="AF10" t="n">
         <v>2.667</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.099</v>
+        <v>0.045</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.314</v>
+        <v>0.213</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.778</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.173</v>
+        <v>0.154</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.416</v>
+        <v>0.393</v>
       </c>
       <c r="AL10" t="n">
-        <v>1</v>
+        <v>0.905</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>0.294</v>
       </c>
       <c r="AO10" t="n">
         <v>0.889</v>
@@ -1551,121 +1551,121 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.778</v>
+        <v>0.833</v>
       </c>
       <c r="C11" t="n">
-        <v>0.173</v>
+        <v>0.139</v>
       </c>
       <c r="D11" t="n">
-        <v>0.416</v>
+        <v>0.373</v>
       </c>
       <c r="E11" t="n">
-        <v>0.778</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.173</v>
+        <v>0.214</v>
       </c>
       <c r="G11" t="n">
-        <v>0.416</v>
+        <v>0.462</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.786</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.168</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="K11" t="n">
-        <v>0.667</v>
+        <v>0.619</v>
       </c>
       <c r="L11" t="n">
-        <v>0.222</v>
+        <v>0.236</v>
       </c>
       <c r="M11" t="n">
-        <v>0.471</v>
+        <v>0.486</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0.786</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.168</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.667</v>
+        <v>0.548</v>
       </c>
       <c r="R11" t="n">
-        <v>0.222</v>
+        <v>0.248</v>
       </c>
       <c r="S11" t="n">
-        <v>0.471</v>
+        <v>0.498</v>
       </c>
       <c r="T11" t="n">
-        <v>0.444</v>
+        <v>0.5</v>
       </c>
       <c r="U11" t="n">
-        <v>0.247</v>
+        <v>0.25</v>
       </c>
       <c r="V11" t="n">
-        <v>0.497</v>
+        <v>0.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0.738</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.193</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.778</v>
+        <v>0.786</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.173</v>
+        <v>0.168</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.416</v>
+        <v>0.41</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.667</v>
+        <v>0.619</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.222</v>
+        <v>0.236</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.471</v>
+        <v>0.486</v>
       </c>
       <c r="AF11" t="n">
         <v>2.667</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.099</v>
+        <v>0.045</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.314</v>
+        <v>0.213</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.778</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.173</v>
+        <v>0.154</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.416</v>
+        <v>0.393</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0.905</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>0.294</v>
       </c>
       <c r="AO11" t="n">
         <v>0.889</v>
@@ -1678,124 +1678,124 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>1.371</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.831</v>
       </c>
       <c r="E12" t="n">
-        <v>1.571</v>
+        <v>1.655</v>
       </c>
       <c r="F12" t="n">
+        <v>1.054</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.026</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.576</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.275</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.129</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.423</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.424</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.087</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.429</v>
+      </c>
+      <c r="U12" t="n">
         <v>0.531</v>
       </c>
-      <c r="G12" t="n">
+      <c r="V12" t="n">
         <v>0.728</v>
       </c>
-      <c r="H12" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.315</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.667</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9429999999999999</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.222</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.395</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.629</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.167</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.373</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.188</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.433</v>
-      </c>
       <c r="W12" t="n">
-        <v>1.889</v>
+        <v>1.323</v>
       </c>
       <c r="X12" t="n">
-        <v>0.543</v>
+        <v>0.348</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.737</v>
+        <v>0.59</v>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>1.212</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>0.228</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>0.477</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.286</v>
+        <v>2.103</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.633</v>
+        <v>4.093</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.906</v>
+        <v>2.023</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.361</v>
+        <v>3.334</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.188</v>
+        <v>0.21</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.433</v>
+        <v>0.458</v>
       </c>
       <c r="AI12" t="n">
-        <v>1</v>
+        <v>1.029</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>0.169</v>
       </c>
       <c r="AL12" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="AO12" t="n">
         <v>1.111</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0.314</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1.12</v>
       </c>
     </row>
     <row r="13">
@@ -1805,124 +1805,124 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.222</v>
+        <v>3.548</v>
       </c>
       <c r="C13" t="n">
-        <v>0.84</v>
+        <v>1.438</v>
       </c>
       <c r="D13" t="n">
-        <v>0.916</v>
+        <v>1.199</v>
       </c>
       <c r="E13" t="n">
-        <v>4.875</v>
+        <v>4.579</v>
       </c>
       <c r="F13" t="n">
-        <v>0.109</v>
+        <v>0.717</v>
       </c>
       <c r="G13" t="n">
-        <v>0.331</v>
+        <v>0.847</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>4.564</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.913</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.955</v>
       </c>
       <c r="K13" t="n">
-        <v>2.222</v>
+        <v>2.297</v>
       </c>
       <c r="L13" t="n">
-        <v>0.617</v>
+        <v>0.641</v>
       </c>
       <c r="M13" t="n">
-        <v>0.786</v>
+        <v>0.801</v>
       </c>
       <c r="N13" t="n">
         <v>3.333</v>
       </c>
       <c r="O13" t="n">
-        <v>0.222</v>
+        <v>0.794</v>
       </c>
       <c r="P13" t="n">
-        <v>0.471</v>
+        <v>0.891</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.286</v>
+        <v>1.2</v>
       </c>
       <c r="R13" t="n">
-        <v>0.204</v>
+        <v>0.16</v>
       </c>
       <c r="S13" t="n">
-        <v>0.452</v>
+        <v>0.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.2</v>
+        <v>2.556</v>
       </c>
       <c r="U13" t="n">
-        <v>0.96</v>
+        <v>1.062</v>
       </c>
       <c r="V13" t="n">
-        <v>0.98</v>
+        <v>1.03</v>
       </c>
       <c r="W13" t="n">
-        <v>3.667</v>
+        <v>4.128</v>
       </c>
       <c r="X13" t="n">
-        <v>2.444</v>
+        <v>7.035</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.563</v>
+        <v>2.652</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.333</v>
+        <v>2.897</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.667</v>
+        <v>4.092</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.633</v>
+        <v>2.023</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.111</v>
+        <v>6.268</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.21</v>
+        <v>3.026</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.792</v>
+        <v>1.739</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.333</v>
+        <v>4.666</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.469</v>
+        <v>0.712</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.844</v>
       </c>
       <c r="AI13" t="n">
-        <v>1</v>
+        <v>1.333</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>0.365</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>0.604</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.889</v>
+        <v>1.714</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.654</v>
+        <v>0.823</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.286</v>
+        <v>0.907</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.444</v>
+        <v>1.555</v>
       </c>
     </row>
   </sheetData>

--- a/stats/harvard/disease_type=all failure-type-ignored=session-failed for app=Avey.xlsx
+++ b/stats/harvard/disease_type=all failure-type-ignored=session-failed for app=Avey.xlsx
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.292</v>
+        <v>0.297</v>
       </c>
       <c r="C4" t="n">
         <v>0.046</v>
@@ -775,115 +775,115 @@
         <v>0.214</v>
       </c>
       <c r="E4" t="n">
-        <v>0.174</v>
+        <v>0.176</v>
       </c>
       <c r="F4" t="n">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="G4" t="n">
-        <v>0.169</v>
+        <v>0.167</v>
       </c>
       <c r="H4" t="n">
-        <v>0.195</v>
+        <v>0.197</v>
       </c>
       <c r="I4" t="n">
         <v>0.027</v>
       </c>
       <c r="J4" t="n">
-        <v>0.165</v>
+        <v>0.164</v>
       </c>
       <c r="K4" t="n">
-        <v>0.317</v>
+        <v>0.322</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1</v>
+        <v>0.099</v>
       </c>
       <c r="M4" t="n">
-        <v>0.317</v>
+        <v>0.314</v>
       </c>
       <c r="N4" t="n">
-        <v>0.25</v>
+        <v>0.252</v>
       </c>
       <c r="O4" t="n">
         <v>0.023</v>
       </c>
       <c r="P4" t="n">
-        <v>0.153</v>
+        <v>0.151</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5</v>
+        <v>0.488</v>
       </c>
       <c r="R4" t="n">
-        <v>0.226</v>
+        <v>0.227</v>
       </c>
       <c r="S4" t="n">
         <v>0.476</v>
       </c>
       <c r="T4" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="W4" t="n">
         <v>0.238</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.292</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.243</v>
       </c>
       <c r="X4" t="n">
         <v>0.044</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.209</v>
+        <v>0.21</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.418</v>
+        <v>0.42</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.131</v>
+        <v>0.128</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.362</v>
+        <v>0.358</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.114</v>
+        <v>0.115</v>
       </c>
       <c r="AD4" t="n">
         <v>0.007</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.083</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.061</v>
+        <v>0.729</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.105</v>
+        <v>0.104</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.324</v>
+        <v>0.323</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.679</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.153</v>
+        <v>0.151</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.391</v>
+        <v>0.389</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.66</v>
+        <v>0.667</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.124</v>
+        <v>0.123</v>
       </c>
       <c r="AN4" t="n">
         <v>0.351</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.694</v>
       </c>
     </row>
     <row r="5">
@@ -893,61 +893,61 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.833</v>
+        <v>0.837</v>
       </c>
       <c r="C5" t="n">
-        <v>0.139</v>
+        <v>0.136</v>
       </c>
       <c r="D5" t="n">
-        <v>0.373</v>
+        <v>0.369</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.698</v>
       </c>
       <c r="F5" t="n">
-        <v>0.214</v>
+        <v>0.211</v>
       </c>
       <c r="G5" t="n">
-        <v>0.462</v>
+        <v>0.459</v>
       </c>
       <c r="H5" t="n">
-        <v>0.786</v>
+        <v>0.791</v>
       </c>
       <c r="I5" t="n">
-        <v>0.168</v>
+        <v>0.165</v>
       </c>
       <c r="J5" t="n">
-        <v>0.41</v>
+        <v>0.407</v>
       </c>
       <c r="K5" t="n">
-        <v>0.619</v>
+        <v>0.628</v>
       </c>
       <c r="L5" t="n">
-        <v>0.236</v>
+        <v>0.234</v>
       </c>
       <c r="M5" t="n">
-        <v>0.486</v>
+        <v>0.483</v>
       </c>
       <c r="N5" t="n">
-        <v>0.786</v>
+        <v>0.791</v>
       </c>
       <c r="O5" t="n">
-        <v>0.168</v>
+        <v>0.165</v>
       </c>
       <c r="P5" t="n">
-        <v>0.41</v>
+        <v>0.407</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.548</v>
+        <v>0.535</v>
       </c>
       <c r="R5" t="n">
-        <v>0.248</v>
+        <v>0.249</v>
       </c>
       <c r="S5" t="n">
-        <v>0.498</v>
+        <v>0.499</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5</v>
+        <v>0.488</v>
       </c>
       <c r="U5" t="n">
         <v>0.25</v>
@@ -956,61 +956,61 @@
         <v>0.5</v>
       </c>
       <c r="W5" t="n">
-        <v>0.738</v>
+        <v>0.721</v>
       </c>
       <c r="X5" t="n">
-        <v>0.193</v>
+        <v>0.201</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.44</v>
+        <v>0.449</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.786</v>
+        <v>0.791</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.168</v>
+        <v>0.165</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.41</v>
+        <v>0.407</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.698</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.214</v>
+        <v>0.211</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.462</v>
+        <v>0.459</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.667</v>
+        <v>0.953</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.213</v>
+        <v>0.211</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.154</v>
+        <v>0.151</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.393</v>
+        <v>0.389</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.905</v>
+        <v>0.907</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.294</v>
+        <v>0.29</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.889</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="6">
@@ -1020,72 +1020,72 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.432</v>
+        <v>0.438</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.278</v>
+        <v>0.281</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.312</v>
+        <v>0.315</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>0.419</v>
+        <v>0.426</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.379</v>
+        <v>0.382</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>0.523</v>
+        <v>0.51</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0.322</v>
+        <v>0.315</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>0.366</v>
+        <v>0.358</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>0.546</v>
+        <v>0.549</v>
       </c>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>0.196</v>
+        <v>0.197</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>2.323</v>
+        <v>0.826</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="n">
-        <v>0.739</v>
+        <v>0.745</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>0.763</v>
+        <v>0.769</v>
       </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
-        <v>0.774</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="7">
@@ -1095,72 +1095,72 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.608</v>
+        <v>0.614</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.433</v>
+        <v>0.438</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.489</v>
+        <v>0.493</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>0.52</v>
+        <v>0.528</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>0.55</v>
+        <v>0.554</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>0.538</v>
+        <v>0.525</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>0.524</v>
+        <v>0.513</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>0.668</v>
+        <v>0.672</v>
       </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>0.343</v>
+        <v>0.347</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>2.517</v>
+        <v>0.898</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="n">
-        <v>0.78</v>
+        <v>0.785</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>0.842</v>
+        <v>0.846</v>
       </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="n">
-        <v>0.839</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="8">
@@ -1170,88 +1170,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.756</v>
+        <v>0.762</v>
       </c>
       <c r="C8" t="n">
-        <v>0.144</v>
+        <v>0.142</v>
       </c>
       <c r="D8" t="n">
-        <v>0.38</v>
+        <v>0.377</v>
       </c>
       <c r="E8" t="n">
-        <v>0.579</v>
+        <v>0.589</v>
       </c>
       <c r="F8" t="n">
         <v>0.186</v>
       </c>
       <c r="G8" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.165</v>
+        <v>0.163</v>
       </c>
       <c r="J8" t="n">
-        <v>0.406</v>
+        <v>0.404</v>
       </c>
       <c r="K8" t="n">
-        <v>0.545</v>
+        <v>0.556</v>
       </c>
       <c r="L8" t="n">
-        <v>0.208</v>
+        <v>0.207</v>
       </c>
       <c r="M8" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="O8" t="n">
-        <v>0.162</v>
+        <v>0.16</v>
       </c>
       <c r="P8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="AB8" t="n">
         <v>0.402</v>
       </c>
-      <c r="Q8" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.238</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.438</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.212</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.662</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.179</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.163</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0.404</v>
-      </c>
       <c r="AC8" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.577</v>
       </c>
       <c r="AD8" t="n">
         <v>0.19</v>
@@ -1260,34 +1260,34 @@
         <v>0.436</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.559</v>
+        <v>0.89</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.06</v>
+        <v>0.059</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.246</v>
+        <v>0.244</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.801</v>
+        <v>0.805</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.154</v>
+        <v>0.151</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.392</v>
+        <v>0.389</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.87</v>
+        <v>0.873</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.091</v>
+        <v>0.089</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.302</v>
+        <v>0.299</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.853</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="9">
@@ -1297,52 +1297,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.667</v>
+        <v>0.674</v>
       </c>
       <c r="C9" t="n">
-        <v>0.222</v>
+        <v>0.22</v>
       </c>
       <c r="D9" t="n">
-        <v>0.471</v>
+        <v>0.469</v>
       </c>
       <c r="E9" t="n">
-        <v>0.452</v>
+        <v>0.465</v>
       </c>
       <c r="F9" t="n">
-        <v>0.248</v>
+        <v>0.249</v>
       </c>
       <c r="G9" t="n">
-        <v>0.498</v>
+        <v>0.499</v>
       </c>
       <c r="H9" t="n">
-        <v>0.571</v>
+        <v>0.581</v>
       </c>
       <c r="I9" t="n">
-        <v>0.245</v>
+        <v>0.243</v>
       </c>
       <c r="J9" t="n">
-        <v>0.495</v>
+        <v>0.493</v>
       </c>
       <c r="K9" t="n">
-        <v>0.452</v>
+        <v>0.465</v>
       </c>
       <c r="L9" t="n">
-        <v>0.248</v>
+        <v>0.249</v>
       </c>
       <c r="M9" t="n">
-        <v>0.498</v>
+        <v>0.499</v>
       </c>
       <c r="N9" t="n">
-        <v>0.571</v>
+        <v>0.581</v>
       </c>
       <c r="O9" t="n">
-        <v>0.245</v>
+        <v>0.243</v>
       </c>
       <c r="P9" t="n">
-        <v>0.495</v>
+        <v>0.493</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5</v>
+        <v>0.488</v>
       </c>
       <c r="R9" t="n">
         <v>0.25</v>
@@ -1351,70 +1351,70 @@
         <v>0.5</v>
       </c>
       <c r="T9" t="n">
-        <v>0.357</v>
+        <v>0.349</v>
       </c>
       <c r="U9" t="n">
-        <v>0.23</v>
+        <v>0.227</v>
       </c>
       <c r="V9" t="n">
-        <v>0.479</v>
+        <v>0.477</v>
       </c>
       <c r="W9" t="n">
-        <v>0.548</v>
+        <v>0.535</v>
       </c>
       <c r="X9" t="n">
-        <v>0.248</v>
+        <v>0.249</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.498</v>
+        <v>0.499</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.643</v>
+        <v>0.651</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.23</v>
+        <v>0.227</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.479</v>
+        <v>0.477</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.452</v>
+        <v>0.465</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.248</v>
+        <v>0.249</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.498</v>
+        <v>0.499</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.382</v>
+        <v>0.791</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.168</v>
+        <v>0.165</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.41</v>
+        <v>0.407</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.786</v>
+        <v>0.791</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.168</v>
+        <v>0.165</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.41</v>
+        <v>0.407</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.154</v>
+        <v>0.151</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.393</v>
+        <v>0.389</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.794</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="10">
@@ -1424,61 +1424,61 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.786</v>
+        <v>0.791</v>
       </c>
       <c r="C10" t="n">
-        <v>0.168</v>
+        <v>0.165</v>
       </c>
       <c r="D10" t="n">
-        <v>0.41</v>
+        <v>0.407</v>
       </c>
       <c r="E10" t="n">
-        <v>0.619</v>
+        <v>0.628</v>
       </c>
       <c r="F10" t="n">
-        <v>0.236</v>
+        <v>0.234</v>
       </c>
       <c r="G10" t="n">
-        <v>0.486</v>
+        <v>0.483</v>
       </c>
       <c r="H10" t="n">
-        <v>0.714</v>
+        <v>0.721</v>
       </c>
       <c r="I10" t="n">
-        <v>0.204</v>
+        <v>0.201</v>
       </c>
       <c r="J10" t="n">
-        <v>0.452</v>
+        <v>0.449</v>
       </c>
       <c r="K10" t="n">
-        <v>0.619</v>
+        <v>0.628</v>
       </c>
       <c r="L10" t="n">
-        <v>0.236</v>
+        <v>0.234</v>
       </c>
       <c r="M10" t="n">
-        <v>0.486</v>
+        <v>0.483</v>
       </c>
       <c r="N10" t="n">
-        <v>0.762</v>
+        <v>0.767</v>
       </c>
       <c r="O10" t="n">
-        <v>0.181</v>
+        <v>0.178</v>
       </c>
       <c r="P10" t="n">
-        <v>0.426</v>
+        <v>0.422</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.548</v>
+        <v>0.535</v>
       </c>
       <c r="R10" t="n">
-        <v>0.248</v>
+        <v>0.249</v>
       </c>
       <c r="S10" t="n">
-        <v>0.498</v>
+        <v>0.499</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5</v>
+        <v>0.488</v>
       </c>
       <c r="U10" t="n">
         <v>0.25</v>
@@ -1487,61 +1487,61 @@
         <v>0.5</v>
       </c>
       <c r="W10" t="n">
-        <v>0.738</v>
+        <v>0.721</v>
       </c>
       <c r="X10" t="n">
-        <v>0.193</v>
+        <v>0.201</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.44</v>
+        <v>0.449</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.786</v>
+        <v>0.791</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.168</v>
+        <v>0.165</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.41</v>
+        <v>0.407</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.571</v>
+        <v>0.581</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.245</v>
+        <v>0.243</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.495</v>
+        <v>0.493</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.667</v>
+        <v>0.953</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.213</v>
+        <v>0.211</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.154</v>
+        <v>0.151</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.393</v>
+        <v>0.389</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.905</v>
+        <v>0.907</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.294</v>
+        <v>0.29</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.889</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="11">
@@ -1551,61 +1551,61 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.833</v>
+        <v>0.837</v>
       </c>
       <c r="C11" t="n">
-        <v>0.139</v>
+        <v>0.136</v>
       </c>
       <c r="D11" t="n">
-        <v>0.373</v>
+        <v>0.369</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.698</v>
       </c>
       <c r="F11" t="n">
-        <v>0.214</v>
+        <v>0.211</v>
       </c>
       <c r="G11" t="n">
-        <v>0.462</v>
+        <v>0.459</v>
       </c>
       <c r="H11" t="n">
-        <v>0.786</v>
+        <v>0.791</v>
       </c>
       <c r="I11" t="n">
-        <v>0.168</v>
+        <v>0.165</v>
       </c>
       <c r="J11" t="n">
-        <v>0.41</v>
+        <v>0.407</v>
       </c>
       <c r="K11" t="n">
-        <v>0.619</v>
+        <v>0.628</v>
       </c>
       <c r="L11" t="n">
-        <v>0.236</v>
+        <v>0.234</v>
       </c>
       <c r="M11" t="n">
-        <v>0.486</v>
+        <v>0.483</v>
       </c>
       <c r="N11" t="n">
-        <v>0.786</v>
+        <v>0.791</v>
       </c>
       <c r="O11" t="n">
-        <v>0.168</v>
+        <v>0.165</v>
       </c>
       <c r="P11" t="n">
-        <v>0.41</v>
+        <v>0.407</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.548</v>
+        <v>0.535</v>
       </c>
       <c r="R11" t="n">
-        <v>0.248</v>
+        <v>0.249</v>
       </c>
       <c r="S11" t="n">
-        <v>0.498</v>
+        <v>0.499</v>
       </c>
       <c r="T11" t="n">
-        <v>0.5</v>
+        <v>0.488</v>
       </c>
       <c r="U11" t="n">
         <v>0.25</v>
@@ -1614,61 +1614,61 @@
         <v>0.5</v>
       </c>
       <c r="W11" t="n">
-        <v>0.738</v>
+        <v>0.721</v>
       </c>
       <c r="X11" t="n">
-        <v>0.193</v>
+        <v>0.201</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.44</v>
+        <v>0.449</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.786</v>
+        <v>0.791</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.168</v>
+        <v>0.165</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.41</v>
+        <v>0.407</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.619</v>
+        <v>0.628</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.236</v>
+        <v>0.234</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.486</v>
+        <v>0.483</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.667</v>
+        <v>0.953</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.213</v>
+        <v>0.211</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.154</v>
+        <v>0.151</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.393</v>
+        <v>0.389</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.905</v>
+        <v>0.907</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.294</v>
+        <v>0.29</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.889</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="12">
@@ -1678,49 +1678,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.371</v>
+        <v>1.361</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.675</v>
       </c>
       <c r="D12" t="n">
-        <v>0.831</v>
+        <v>0.822</v>
       </c>
       <c r="E12" t="n">
-        <v>1.655</v>
+        <v>1.633</v>
       </c>
       <c r="F12" t="n">
-        <v>1.054</v>
+        <v>1.032</v>
       </c>
       <c r="G12" t="n">
-        <v>1.026</v>
+        <v>1.016</v>
       </c>
       <c r="H12" t="n">
-        <v>1.576</v>
+        <v>1.559</v>
       </c>
       <c r="I12" t="n">
-        <v>1.275</v>
+        <v>1.247</v>
       </c>
       <c r="J12" t="n">
-        <v>1.129</v>
+        <v>1.116</v>
       </c>
       <c r="K12" t="n">
-        <v>1.423</v>
+        <v>1.407</v>
       </c>
       <c r="L12" t="n">
-        <v>0.552</v>
+        <v>0.538</v>
       </c>
       <c r="M12" t="n">
-        <v>0.743</v>
+        <v>0.733</v>
       </c>
       <c r="N12" t="n">
-        <v>1.424</v>
+        <v>1.412</v>
       </c>
       <c r="O12" t="n">
-        <v>0.608</v>
+        <v>0.595</v>
       </c>
       <c r="P12" t="n">
-        <v>0.78</v>
+        <v>0.771</v>
       </c>
       <c r="Q12" t="n">
         <v>1.087</v>
@@ -1750,52 +1750,52 @@
         <v>0.59</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.212</v>
+        <v>1.206</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.228</v>
+        <v>0.222</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.477</v>
+        <v>0.472</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.103</v>
+        <v>2.067</v>
       </c>
       <c r="AD12" t="n">
-        <v>4.093</v>
+        <v>3.996</v>
       </c>
       <c r="AE12" t="n">
-        <v>2.023</v>
+        <v>1.999</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.334</v>
+        <v>1.195</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.21</v>
+        <v>0.206</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.458</v>
+        <v>0.454</v>
       </c>
       <c r="AI12" t="n">
         <v>1.029</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.169</v>
+        <v>0.167</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.105</v>
+        <v>1.103</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.094</v>
+        <v>0.092</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.307</v>
+        <v>0.303</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.111</v>
+        <v>1.109</v>
       </c>
     </row>
     <row r="13">
@@ -1805,49 +1805,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.548</v>
+        <v>3.512</v>
       </c>
       <c r="C13" t="n">
-        <v>1.438</v>
+        <v>1.459</v>
       </c>
       <c r="D13" t="n">
-        <v>1.199</v>
+        <v>1.208</v>
       </c>
       <c r="E13" t="n">
-        <v>4.579</v>
+        <v>4.564</v>
       </c>
       <c r="F13" t="n">
-        <v>0.717</v>
+        <v>0.707</v>
       </c>
       <c r="G13" t="n">
-        <v>0.847</v>
+        <v>0.841</v>
       </c>
       <c r="H13" t="n">
-        <v>4.564</v>
+        <v>4.55</v>
       </c>
       <c r="I13" t="n">
-        <v>0.913</v>
+        <v>0.898</v>
       </c>
       <c r="J13" t="n">
-        <v>0.955</v>
+        <v>0.947</v>
       </c>
       <c r="K13" t="n">
-        <v>2.297</v>
+        <v>2.289</v>
       </c>
       <c r="L13" t="n">
-        <v>0.641</v>
+        <v>0.627</v>
       </c>
       <c r="M13" t="n">
-        <v>0.801</v>
+        <v>0.792</v>
       </c>
       <c r="N13" t="n">
-        <v>3.333</v>
+        <v>3.326</v>
       </c>
       <c r="O13" t="n">
-        <v>0.794</v>
+        <v>0.778</v>
       </c>
       <c r="P13" t="n">
-        <v>0.891</v>
+        <v>0.882</v>
       </c>
       <c r="Q13" t="n">
         <v>1.2</v>
@@ -1877,52 +1877,52 @@
         <v>2.652</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.897</v>
+        <v>2.875</v>
       </c>
       <c r="AA13" t="n">
-        <v>4.092</v>
+        <v>4.009</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.023</v>
+        <v>2.002</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.268</v>
+        <v>6.286</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.026</v>
+        <v>2.966</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.739</v>
+        <v>1.722</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.666</v>
+        <v>1.605</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.712</v>
+        <v>0.704</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.844</v>
+        <v>0.839</v>
       </c>
       <c r="AI13" t="n">
-        <v>1.333</v>
+        <v>1.326</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.365</v>
+        <v>0.359</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.604</v>
+        <v>0.599</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.714</v>
+        <v>1.698</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.823</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.907</v>
+        <v>0.903</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.555</v>
+        <v>1.543</v>
       </c>
     </row>
   </sheetData>
